--- a/替换词表.xlsx
+++ b/替换词表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\KnoLib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE7A4E3-0ACA-4534-A920-899D4A559A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4663163D-1A3A-455E-A2AD-B57151526731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>比如删除'哈'字时，删除'哈哈'及'哈哈哈'，不删除'哈尔滨'中的'哈'。Y是启用，N是不启用，注意都是大写</t>
+          <t>比如删除'哈'字时，删除'哈哈'及'哈哈哈'，不删除'哈尔滨'中的'哈'。Y是启用,注意是大写</t>
         </r>
       </text>
     </comment>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>替换前</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,35 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为主持人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cici</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🧀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>**Cici**</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -93,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +152,18 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,10 +204,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,20 +469,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" customWidth="1"/>
+    <col min="3" max="3" width="12.1328125" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,8 +493,11 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -464,11 +505,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/替换词表.xlsx
+++ b/替换词表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\KnoLib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4663163D-1A3A-455E-A2AD-B57151526731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8D787F-9296-40C1-A88F-0E72C7413C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否为主持人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cici</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,6 +111,10 @@
       </rPr>
       <t>**Cici**</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为昵称列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +472,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -515,10 +515,10 @@
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
